--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +431,10 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -540,47 +540,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -591,7 +591,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -616,29 +616,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>12</v>
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -713,7 +713,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -723,35 +723,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -774,7 +774,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -957,22 +957,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -982,20 +982,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1104,32 +1104,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1165,32 +1165,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1201,48 +1201,48 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1262,22 +1262,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1348,17 +1348,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1384,57 +1384,57 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1445,45 +1445,45 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,47 +1516,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1577,32 +1577,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>5:36 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1638,12 +1638,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1653,32 +1653,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1714,20 +1714,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0:56 - 1st Half</t>
+          <t>10:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1760,47 +1760,1145 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Corey Chest</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Patton Pinkins</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>MISS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>MISS@UK</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0:56 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>-2</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>10</v>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10:33 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +2912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,11 +2945,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1864,62 +2962,75 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -1470,20 +1470,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1531,20 +1531,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J18" t="n">
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1592,24 +1592,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -2080,17 +2080,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2507,14 +2507,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2812,20 +2812,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>9</v>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2873,32 +2873,32 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>2</v>
       </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3859,7 +3859,7 @@
         <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -3910,17 +3910,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -4093,14 +4093,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J60" t="n">
         <v>6</v>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -5542,32 +5542,32 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5628,22 +5628,22 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5683,28 +5683,28 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5747,13 +5747,13 @@
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5811,22 +5811,22 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
         <v>4</v>
       </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5869,7 +5869,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>4</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -5908,33 +5908,33 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>3</v>
       </c>
       <c r="I90" t="n">
+        <v>9</v>
+      </c>
+      <c r="J90" t="n">
         <v>4</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -5969,32 +5969,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -6030,17 +6030,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6052,10 +6052,10 @@
         <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -6091,22 +6091,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>6:08 - 1st Half</t>
+          <t>1:43 - 1st Half</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0:35 - OT</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -7825,27 +7825,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7881,7 +7881,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -906,38 +906,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -967,35 +967,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1018,57 +1018,57 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1079,57 +1079,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -1150,47 +1150,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1206,52 +1206,52 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -1267,52 +1267,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n">
         <v>10</v>
       </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1328,43 +1328,43 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1394,47 +1394,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -1455,35 +1455,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -1506,57 +1506,57 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>10</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -1567,57 +1567,57 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1628,27 +1628,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1699,47 +1699,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1755,52 +1755,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -1816,52 +1816,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
         <v>3</v>
       </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,35 +1943,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1994,57 +1994,57 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -2055,57 +2055,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2116,57 +2116,57 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2243,43 +2243,43 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -2304,52 +2304,52 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -2365,52 +2365,52 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2431,47 +2431,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
         <v>3</v>
       </c>
-      <c r="K33" t="n">
-        <v>4</v>
-      </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2492,47 +2492,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -2543,22 +2543,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2572,28 +2572,28 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2614,17 +2614,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I36" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,47 +2675,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2797,29 +2797,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2853,52 +2853,52 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>23</v>
+      </c>
+      <c r="I40" t="n">
+        <v>17</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
         <v>4</v>
       </c>
-      <c r="I40" t="n">
+      <c r="L40" t="n">
+        <v>7</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>3</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2</v>
-      </c>
       <c r="O40" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2919,47 +2919,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I41" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
         <v>6</v>
       </c>
-      <c r="K41" t="n">
-        <v>2</v>
-      </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O41" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
+        <v>11</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
         <v>9</v>
       </c>
-      <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3041,30 +3041,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>5</v>
       </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
@@ -3072,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
         <v>12</v>
@@ -3092,22 +3092,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -3153,27 +3153,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3224,47 +3224,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,35 +3285,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,35 +3346,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
+        <v>32</v>
+      </c>
+      <c r="I50" t="n">
         <v>26</v>
       </c>
-      <c r="I50" t="n">
-        <v>24</v>
-      </c>
       <c r="J50" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
         <v>5</v>
       </c>
-      <c r="K50" t="n">
-        <v>5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3529,47 +3529,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3590,17 +3590,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3651,47 +3651,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -3702,22 +3702,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3731,28 +3731,28 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3792,19 +3792,19 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3834,38 +3834,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I56" t="n">
+        <v>18</v>
+      </c>
+      <c r="J56" t="n">
         <v>5</v>
       </c>
-      <c r="J56" t="n">
-        <v>3</v>
-      </c>
       <c r="K56" t="n">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3895,47 +3895,47 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O57" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,32 +3956,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>-1</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3993,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -4007,27 +4007,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4036,28 +4036,28 @@
         </is>
       </c>
       <c r="H59" t="n">
+        <v>26</v>
+      </c>
+      <c r="I59" t="n">
         <v>24</v>
       </c>
-      <c r="I59" t="n">
-        <v>21</v>
-      </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -4068,57 +4068,57 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
@@ -4129,22 +4129,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
         <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -4190,57 +4190,57 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4280,7 +4280,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I63" t="n">
         <v>8</v>
@@ -4289,19 +4289,19 @@
         <v>8</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4322,47 +4322,47 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,16 +4402,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -4420,10 +4420,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4444,35 +4444,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4505,35 +4505,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4566,47 +4566,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4627,17 +4627,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4646,28 +4646,28 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4707,10 +4707,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I70" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J70" t="n">
         <v>2</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -4749,47 +4749,47 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
         <v>4</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
       <c r="O71" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,16 +4829,16 @@
         </is>
       </c>
       <c r="H72" t="n">
+        <v>17</v>
+      </c>
+      <c r="I72" t="n">
         <v>8</v>
       </c>
-      <c r="I72" t="n">
-        <v>3</v>
-      </c>
       <c r="J72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
         <v>3</v>
       </c>
-      <c r="J73" t="n">
-        <v>8</v>
-      </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="H74" t="n">
+        <v>14</v>
+      </c>
+      <c r="I74" t="n">
         <v>8</v>
       </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -4993,47 +4993,47 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
+        <v>9</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
         <v>3</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O75" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7</v>
+      </c>
+      <c r="K76" t="n">
         <v>3</v>
       </c>
-      <c r="J76" t="n">
-        <v>2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5134,28 +5134,28 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -5176,35 +5176,35 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5256,16 +5256,16 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
+        <v>9</v>
+      </c>
+      <c r="I81" t="n">
         <v>5</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>3</v>
       </c>
-      <c r="J81" t="n">
-        <v>4</v>
-      </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5439,13 +5439,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -5481,17 +5481,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
@@ -5509,19 +5509,19 @@
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -5542,47 +5542,47 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5683,28 +5683,28 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5744,28 +5744,28 @@
         </is>
       </c>
       <c r="H87" t="n">
+        <v>8</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6</v>
+      </c>
+      <c r="J87" t="n">
         <v>3</v>
       </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="H88" t="n">
+        <v>8</v>
+      </c>
+      <c r="I88" t="n">
         <v>3</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5866,28 +5866,28 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
         <v>4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5927,14 +5927,14 @@
         </is>
       </c>
       <c r="H90" t="n">
+        <v>8</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" t="n">
         <v>3</v>
       </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>4</v>
-      </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -5969,38 +5969,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -6030,38 +6030,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -6091,17 +6091,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
         <v>3</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -6128,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -6152,12 +6152,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6171,13 +6171,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -6213,17 +6213,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6232,19 +6232,19 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
         <v>4</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6293,13 +6293,13 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6354,28 +6354,28 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -6396,32 +6396,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -6430,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -6457,29 +6457,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -6488,16 +6488,16 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -6518,35 +6518,35 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6598,28 +6598,28 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6659,28 +6659,28 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -6729,19 +6729,19 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -6762,35 +6762,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6860,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
@@ -6884,29 +6884,29 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -6945,17 +6945,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6964,13 +6964,13 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6982,10 +6982,10 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -7006,29 +7006,29 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
@@ -7067,38 +7067,38 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:04 - 1st Half</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -7128,32 +7128,32 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -7250,32 +7250,32 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1:43 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -7311,17 +7311,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7330,16 +7330,16 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -7372,35 +7372,35 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -7409,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O114" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7452,16 +7452,16 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -7494,32 +7494,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>11:14 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7531,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -7555,17 +7555,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7574,10 +7574,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -7586,16 +7586,16 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -7616,17 +7616,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7635,13 +7635,13 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -7677,17 +7677,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7696,16 +7696,16 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -7714,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -7738,46 +7738,1022 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>Filip Jović</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>AUB@FLA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>11:14 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>AUB@FLA</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>11:14 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Luke Northweather</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Jaylon Dean-Vines</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Dayton Forsythe</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H120" t="n">
+      <c r="H136" t="n">
         <v>-6</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7829,20 +8805,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -7851,14 +8827,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7868,7 +8844,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -7877,11 +8853,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -7890,14 +8866,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -7907,10 +8883,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -921,7 +921,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -6457,12 +6457,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6472,32 +6472,32 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H99" t="n">
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -6518,38 +6518,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>4</v>
       </c>
       <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>4</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6598,28 +6598,28 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6662,13 +6662,13 @@
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -6701,17 +6701,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6726,22 +6726,22 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -6762,47 +6762,47 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H104" t="n">
         <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3:04 - 1st Half</t>
+          <t>2:44 - 1st Half</t>
         </is>
       </c>
       <c r="H109" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -562,16 +562,16 @@
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -601,7 +601,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -662,35 +662,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -723,12 +723,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
         <v>17</v>
       </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,19 +864,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -906,17 +906,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -1577,47 +1577,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,19 +1901,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2243,52 +2243,52 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -2309,47 +2309,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2511,13 +2511,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,28 +2572,28 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -3468,47 +3468,47 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -3585,22 +3585,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
         <v>15</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="n">
         <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3792,28 +3792,28 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,22 +3853,22 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,14 +3914,14 @@
         </is>
       </c>
       <c r="H57" t="n">
+        <v>9</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
         <v>5</v>
       </c>
-      <c r="I57" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2</v>
-      </c>
       <c r="K57" t="n">
         <v>1</v>
       </c>
@@ -3929,13 +3929,13 @@
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
         <v>3</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4219,13 +4219,13 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -4237,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -4261,47 +4261,47 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I67" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -4566,35 +4566,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O68" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4893,25 +4893,25 @@
         <v>9</v>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5018,22 +5018,22 @@
         <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5076,25 +5076,25 @@
         <v>9</v>
       </c>
       <c r="I76" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
         <v>3</v>
       </c>
       <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
         <v>3</v>
       </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9973,11 +9973,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -9986,27 +9986,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -10042,7 +10042,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -562,16 +562,16 @@
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -601,7 +601,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -662,35 +662,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -723,12 +723,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,19 +864,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -906,17 +906,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,20 +1535,20 @@
         </is>
       </c>
       <c r="H18" t="n">
+        <v>12</v>
+      </c>
+      <c r="I18" t="n">
         <v>7</v>
       </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
       <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1577,47 +1577,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
-        <v>4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
       <c r="O21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,19 +1901,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
         <v>5</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2243,52 +2243,52 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -2309,47 +2309,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2511,13 +2511,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,28 +2572,28 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3468,47 +3468,47 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O50" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -3585,22 +3585,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>15</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
         <v>5</v>
       </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2</v>
-      </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" t="n">
         <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3792,28 +3792,28 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,22 +3853,22 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,13 +3914,13 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3929,13 +3929,13 @@
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4219,13 +4219,13 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -4237,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -4261,47 +4261,47 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
         <v>9</v>
       </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
       <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
         <v>3</v>
       </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O67" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -4566,35 +4566,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I68" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4893,25 +4893,25 @@
         <v>9</v>
       </c>
       <c r="I73" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TENN@ALA</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5018,22 +5018,22 @@
         <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5076,25 +5076,25 @@
         <v>9</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J76" t="n">
         <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9973,11 +9973,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -9986,27 +9986,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -10042,7 +10042,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
